--- a/biology/Écologie/Bioconcentration/Bioconcentration.xlsx
+++ b/biology/Écologie/Bioconcentration/Bioconcentration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bioconcentration désigne le phénomène qui, pour une substance donnée (oligoélément, polluant, radioisotope, etc.), va engendrer des concentrations dans les êtres vivants supérieures aux concentrations présentes dans le milieu.
 Il y a bioconcentration quand pour un organisme ou une population associée à un milieu (biocénose), l'absorption et rétention de contaminants prélevés dans le milieu est supérieure à l'élimination naturelle... avec dilution dans le milieu ou adsorption sur le substrat minéral ou organique non-vivant (tourbe, charbon.)
@@ -514,7 +526,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les moules sont un exemple souvent cité d'espèces bioaccumulatrices (fréquent chez les animaux filtreurs) qui peuvent bioconcentrer des molécules de l'environnement à des teneurs de plusieurs centaines de milliers de fois supérieures à celles qui sont mesurées dans l'eau. Il peut s'agir d'oligoéléments utiles (iode marin) ou de contaminants toxiques (ex: iode 131 radioactif, ou plomb, mercure, cadmium ou encore toxines organiques produites par un plancton..)
 Les poissons et organismes (ex : cétacés) marins piscivores tendent à facilement et parfois fortement (dans le cas du thon, du marlin ou de l'espadon par exemple) bioconcentrer le mercure (sous forme de méthylmercure notamment).
@@ -546,7 +560,9 @@
           <t>Biomagnification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La bioconcentration permet à l'échelle du réseau trophique et de l'écosystème la biomagnification.
 Elle dépend de plusieurs facteurs, dont
